--- a/Data/Crosswalks/Attribute_LifeStage_Crosswalk.xlsx
+++ b/Data/Crosswalks/Attribute_LifeStage_Crosswalk.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Crosswalks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23012CEB-15A1-4E29-81E0-47C11B7955C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D026E6DA-F0D5-4F4A-9E61-846C8BA39495}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="312" windowWidth="14136" windowHeight="11616" xr2:uid="{611DF7DE-642B-4840-9A75-6536BEE518E4}"/>
+    <workbookView xWindow="4440" yWindow="1944" windowWidth="19968" windowHeight="10356" xr2:uid="{611DF7DE-642B-4840-9A75-6536BEE518E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$146</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="46">
   <si>
     <t>Species</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Predators- Adult</t>
+  </si>
+  <si>
+    <t>Predators- Adults</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -618,17 +621,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA5C33B-3429-4218-AF97-9225DAF5FE2F}">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.109375" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -651,10 +654,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>39</v>
@@ -662,13 +665,13 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>39</v>
@@ -676,39 +679,39 @@
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>39</v>
@@ -718,35 +721,39 @@
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>39</v>
@@ -756,11 +763,11 @@
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>39</v>
@@ -771,38 +778,34 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -811,50 +814,48 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>39</v>
@@ -862,27 +863,25 @@
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>39</v>
@@ -890,25 +889,27 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -916,11 +917,11 @@
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>9</v>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>39</v>
@@ -931,33 +932,31 @@
         <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>12</v>
@@ -968,77 +967,77 @@
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>39</v>
@@ -1046,27 +1045,25 @@
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>39</v>
@@ -1074,41 +1071,37 @@
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>7</v>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>39</v>
@@ -1124,59 +1117,53 @@
       <c r="C37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D41" s="4"/>
     </row>
@@ -1184,11 +1171,11 @@
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>7</v>
+      <c r="B42" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D42" s="4"/>
     </row>
@@ -1197,142 +1184,150 @@
         <v>4</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D54" s="4"/>
     </row>
@@ -1341,34 +1336,36 @@
         <v>30</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D57" s="4"/>
     </row>
@@ -1377,22 +1374,22 @@
         <v>30</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D59" s="4"/>
     </row>
@@ -1401,34 +1398,36 @@
         <v>30</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D62" s="4"/>
     </row>
@@ -1437,60 +1436,70 @@
         <v>30</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
@@ -1500,21 +1509,19 @@
         <v>13</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>39</v>
@@ -1528,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>39</v>
@@ -1536,13 +1543,13 @@
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>39</v>
@@ -1553,38 +1560,34 @@
         <v>30</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>39</v>
@@ -1592,91 +1595,89 @@
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D80" s="4"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>39</v>
@@ -1684,39 +1685,39 @@
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D84" s="4"/>
     </row>
@@ -1725,22 +1726,22 @@
         <v>30</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D86" s="4"/>
     </row>
@@ -1749,70 +1750,80 @@
         <v>30</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D87" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D91" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D92" s="4"/>
     </row>
@@ -1821,36 +1832,36 @@
         <v>30</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D94" s="4"/>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>39</v>
@@ -1858,13 +1869,13 @@
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>39</v>
@@ -1878,43 +1889,43 @@
         <v>31</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D100" s="4"/>
     </row>
@@ -1923,7 +1934,7 @@
         <v>30</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>24</v>
@@ -1935,88 +1946,84 @@
         <v>37</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D103" s="4"/>
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D106" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>39</v>
@@ -2024,41 +2031,43 @@
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D109" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D111" s="4"/>
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
@@ -2068,7 +2077,7 @@
         <v>13</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>39</v>
@@ -2076,13 +2085,13 @@
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>39</v>
@@ -2093,7 +2102,7 @@
         <v>37</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>25</v>
@@ -2104,7 +2113,7 @@
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>13</v>
@@ -2112,19 +2121,17 @@
       <c r="C115" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="D115" s="4"/>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>39</v>
@@ -2138,31 +2145,33 @@
         <v>13</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D118" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>39</v>
@@ -2173,24 +2182,22 @@
         <v>37</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D120" s="4"/>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>39</v>
@@ -2198,27 +2205,25 @@
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D122" s="4"/>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>39</v>
@@ -2229,24 +2234,22 @@
         <v>37</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D124" s="4"/>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D125" s="4"/>
     </row>
@@ -2258,33 +2261,35 @@
         <v>33</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D126" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>13</v>
+      <c r="A128" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>39</v>
@@ -2292,13 +2297,13 @@
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D129" s="4"/>
     </row>
@@ -2306,61 +2311,61 @@
       <c r="A130" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>13</v>
+      <c r="B130" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D132" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D133" s="4"/>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>39</v>
@@ -2368,56 +2373,172 @@
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B135" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D135" s="4"/>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C136" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D138" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2433,12 +2554,18 @@
     <row r="173" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:D136" xr:uid="{DAB5F8B1-7139-46E7-9A73-93F8C37D8656}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D136">
-      <sortCondition ref="C1:C136"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D146" xr:uid="{DAB5F8B1-7139-46E7-9A73-93F8C37D8656}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data/Crosswalks/Attribute_LifeStage_Crosswalk.xlsx
+++ b/Data/Crosswalks/Attribute_LifeStage_Crosswalk.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Crosswalks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D026E6DA-F0D5-4F4A-9E61-846C8BA39495}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39951C77-BCA7-4806-8120-F74A58AFA2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1944" windowWidth="19968" windowHeight="10356" xr2:uid="{611DF7DE-642B-4840-9A75-6536BEE518E4}"/>
+    <workbookView xWindow="11520" yWindow="120" windowWidth="12336" windowHeight="11184" xr2:uid="{611DF7DE-642B-4840-9A75-6536BEE518E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$136</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="45">
   <si>
     <t>Species</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Predators- Adult</t>
-  </si>
-  <si>
-    <t>Predators- Adults</t>
   </si>
 </sst>
 </file>
@@ -621,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA5C33B-3429-4218-AF97-9225DAF5FE2F}">
-  <dimension ref="A1:D185"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,7 +654,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>39</v>
@@ -665,13 +662,13 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>39</v>
@@ -679,7 +676,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>18</v>
@@ -687,21 +684,21 @@
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -711,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>39</v>
@@ -725,11 +722,9 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -739,11 +734,9 @@
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -753,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>39</v>
@@ -767,7 +760,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>39</v>
@@ -777,35 +770,39 @@
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -813,13 +810,15 @@
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -829,9 +828,11 @@
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -841,11 +842,9 @@
         <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -855,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>39</v>
@@ -865,23 +864,25 @@
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>7</v>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>7</v>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>39</v>
@@ -891,25 +892,23 @@
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>7</v>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>7</v>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -917,11 +916,11 @@
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>7</v>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>39</v>
@@ -935,9 +934,11 @@
         <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -947,7 +948,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -959,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>39</v>
@@ -973,7 +974,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -985,9 +986,11 @@
         <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -997,11 +1000,9 @@
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
@@ -1011,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>39</v>
@@ -1019,25 +1020,27 @@
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>39</v>
@@ -1045,25 +1048,27 @@
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>39</v>
@@ -1071,37 +1076,41 @@
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>39</v>
@@ -1109,49 +1118,55 @@
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -1163,31 +1178,31 @@
         <v>13</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D43" s="4"/>
     </row>
@@ -1199,47 +1214,43 @@
         <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>39</v>
@@ -1247,13 +1258,13 @@
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>39</v>
@@ -1261,61 +1272,69 @@
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D53" s="4"/>
     </row>
@@ -1324,72 +1343,76 @@
         <v>30</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D59" s="4"/>
     </row>
@@ -1401,33 +1424,31 @@
         <v>13</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D62" s="4"/>
     </row>
@@ -1439,35 +1460,31 @@
         <v>13</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>39</v>
@@ -1481,7 +1498,7 @@
         <v>13</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>39</v>
@@ -1489,13 +1506,13 @@
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>39</v>
@@ -1506,16 +1523,18 @@
         <v>30</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>34</v>
@@ -1529,7 +1548,7 @@
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>5</v>
@@ -1549,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>39</v>
@@ -1557,37 +1576,41 @@
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>39</v>
@@ -1601,31 +1624,35 @@
         <v>5</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D77" s="4"/>
     </row>
@@ -1637,47 +1664,45 @@
         <v>5</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D80" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>39</v>
@@ -1685,51 +1710,51 @@
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D85" s="4"/>
     </row>
@@ -1738,92 +1763,82 @@
         <v>30</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D89" s="4"/>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D90" s="4"/>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D92" s="4"/>
     </row>
@@ -1832,33 +1847,33 @@
         <v>30</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D93" s="4"/>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>10</v>
@@ -1869,13 +1884,13 @@
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>39</v>
@@ -1886,22 +1901,22 @@
         <v>30</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D98" s="4"/>
     </row>
@@ -1910,22 +1925,22 @@
         <v>30</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D100" s="4"/>
     </row>
@@ -1934,10 +1949,10 @@
         <v>30</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D101" s="4"/>
     </row>
@@ -1946,46 +1961,50 @@
         <v>37</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="4"/>
+      <c r="D104" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D105" s="4"/>
     </row>
@@ -1994,36 +2013,36 @@
         <v>37</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D106" s="4"/>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D107" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>39</v>
@@ -2031,53 +2050,51 @@
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D109" s="4"/>
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D110" s="4"/>
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>39</v>
@@ -2085,13 +2102,13 @@
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>39</v>
@@ -2102,10 +2119,10 @@
         <v>37</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>39</v>
@@ -2113,25 +2130,27 @@
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D115" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>39</v>
@@ -2139,13 +2158,13 @@
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" s="4"/>
     </row>
@@ -2154,24 +2173,22 @@
         <v>37</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="D118" s="4"/>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>39</v>
@@ -2182,22 +2199,24 @@
         <v>37</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>39</v>
@@ -2208,22 +2227,24 @@
         <v>37</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>39</v>
@@ -2233,23 +2254,25 @@
       <c r="A124" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>5</v>
+      <c r="B124" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D124" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D125" s="4"/>
     </row>
@@ -2257,25 +2280,23 @@
       <c r="A126" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>33</v>
+      <c r="B126" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D126" s="4"/>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>39</v>
@@ -2285,11 +2306,11 @@
       <c r="A128" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>33</v>
+      <c r="B128" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>39</v>
@@ -2297,13 +2318,13 @@
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D129" s="4"/>
     </row>
@@ -2311,23 +2332,23 @@
       <c r="A130" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>33</v>
+      <c r="B130" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>33</v>
+      <c r="A131" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D131" s="4"/>
     </row>
@@ -2335,34 +2356,34 @@
       <c r="A132" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>33</v>
+      <c r="B132" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D133" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>33</v>
+      <c r="B134" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>23</v>
@@ -2373,172 +2394,56 @@
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D135" s="4"/>
+      <c r="D135" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>33</v>
+      <c r="B136" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D145" s="4"/>
-    </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2554,18 +2459,8 @@
     <row r="173" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:D146" xr:uid="{DAB5F8B1-7139-46E7-9A73-93F8C37D8656}"/>
+  <autoFilter ref="A1:D136" xr:uid="{DAB5F8B1-7139-46E7-9A73-93F8C37D8656}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data/Crosswalks/Attribute_LifeStage_Crosswalk.xlsx
+++ b/Data/Crosswalks/Attribute_LifeStage_Crosswalk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Crosswalks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39951C77-BCA7-4806-8120-F74A58AFA2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C446CC4C-FCBF-44B7-BBD6-7E6BC29DF5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="120" windowWidth="12336" windowHeight="11184" xr2:uid="{611DF7DE-642B-4840-9A75-6536BEE518E4}"/>
+    <workbookView xWindow="7176" yWindow="516" windowWidth="17448" windowHeight="10464" xr2:uid="{611DF7DE-642B-4840-9A75-6536BEE518E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="47">
   <si>
     <t>Species</t>
   </si>
@@ -108,12 +108,6 @@
     <t>Icing</t>
   </si>
   <si>
-    <t xml:space="preserve">Off-Channel- Floodplain </t>
-  </si>
-  <si>
-    <t>Off-Channel- Side-Channels</t>
-  </si>
-  <si>
     <t>Pool Quantity &amp; Quality</t>
   </si>
   <si>
@@ -162,16 +156,28 @@
     <t>Cover- Undercut banks</t>
   </si>
   <si>
-    <t>Entrainment- Fry</t>
-  </si>
-  <si>
-    <t>Entrainment- Summer Rearing</t>
-  </si>
-  <si>
     <t>Hybridization</t>
   </si>
   <si>
     <t>Predators- Adult</t>
+  </si>
+  <si>
+    <t>Floodplain Connectivity</t>
+  </si>
+  <si>
+    <t>Off-Channel/Side-Channels</t>
+  </si>
+  <si>
+    <t>Entrainment/Stranding</t>
+  </si>
+  <si>
+    <t>was "Entrainment- Summer Rearing"</t>
+  </si>
+  <si>
+    <t>was "Entrainment- Fry"</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -233,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -282,13 +288,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,6 +326,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA5C33B-3429-4218-AF97-9225DAF5FE2F}">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +663,7 @@
     <col min="4" max="4" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,270 +676,285 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -920,331 +966,317 @@
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="D44" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>13</v>
@@ -1253,12 +1285,12 @@
         <v>16</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>13</v>
@@ -1267,325 +1299,335 @@
         <v>16</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C54" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C60" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1593,13 +1635,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1607,163 +1649,163 @@
         <v>4</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>21</v>
@@ -1772,10 +1814,10 @@
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>21</v>
@@ -1784,640 +1826,644 @@
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D94" s="4"/>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
+      <c r="C101" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C102" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D105" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D106" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D115" s="4"/>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D116" s="4"/>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D119" s="4"/>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D120" s="4"/>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C121" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D121" s="4"/>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D122" s="4"/>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D127" s="4"/>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D131" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D132" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
